--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Csf1-Csf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Csf1-Csf1r.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.205621000000001</v>
+        <v>15.86144566666667</v>
       </c>
       <c r="H2">
-        <v>24.616863</v>
+        <v>47.584337</v>
       </c>
       <c r="I2">
-        <v>0.01071002656574725</v>
+        <v>0.02088955526964555</v>
       </c>
       <c r="J2">
-        <v>0.01071002656574725</v>
+        <v>0.02088955526964555</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1918176666666667</v>
+        <v>3.022461</v>
       </c>
       <c r="N2">
-        <v>0.575453</v>
+        <v>9.067383</v>
       </c>
       <c r="O2">
-        <v>0.0003700706761723729</v>
+        <v>0.009162117878737878</v>
       </c>
       <c r="P2">
-        <v>0.0003700706761723729</v>
+        <v>0.009162117878737878</v>
       </c>
       <c r="Q2">
-        <v>1.573983073771</v>
+        <v>47.940600931119</v>
       </c>
       <c r="R2">
-        <v>14.165847663939</v>
+        <v>431.465408380071</v>
       </c>
       <c r="S2">
-        <v>3.963466773010162E-06</v>
+        <v>0.0001913925678149025</v>
       </c>
       <c r="T2">
-        <v>3.963466773010162E-06</v>
+        <v>0.0001913925678149025</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.205621000000001</v>
+        <v>15.86144566666667</v>
       </c>
       <c r="H3">
-        <v>24.616863</v>
+        <v>47.584337</v>
       </c>
       <c r="I3">
-        <v>0.01071002656574725</v>
+        <v>0.02088955526964555</v>
       </c>
       <c r="J3">
-        <v>0.01071002656574725</v>
+        <v>0.02088955526964555</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.999305</v>
       </c>
       <c r="O3">
-        <v>0.001285742107912907</v>
+        <v>0.002020193487531081</v>
       </c>
       <c r="P3">
-        <v>0.001285742107912907</v>
+        <v>0.002020193487531081</v>
       </c>
       <c r="Q3">
-        <v>5.468513031135</v>
+        <v>10.570622542865</v>
       </c>
       <c r="R3">
-        <v>49.216617280215</v>
+        <v>95.135602885785</v>
       </c>
       <c r="S3">
-        <v>1.37703321324471E-05</v>
+        <v>4.220094351315851E-05</v>
       </c>
       <c r="T3">
-        <v>1.37703321324471E-05</v>
+        <v>4.220094351315851E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.205621000000001</v>
+        <v>15.86144566666667</v>
       </c>
       <c r="H4">
-        <v>24.616863</v>
+        <v>47.584337</v>
       </c>
       <c r="I4">
-        <v>0.01071002656574725</v>
+        <v>0.02088955526964555</v>
       </c>
       <c r="J4">
-        <v>0.01071002656574725</v>
+        <v>0.02088955526964555</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>205.1875406666667</v>
+        <v>154.464279</v>
       </c>
       <c r="N4">
-        <v>615.562622</v>
+        <v>463.392837</v>
       </c>
       <c r="O4">
-        <v>0.3958649546530799</v>
+        <v>0.4682343071597139</v>
       </c>
       <c r="P4">
-        <v>0.3958649546530799</v>
+        <v>0.4682343071597138</v>
       </c>
       <c r="Q4">
-        <v>1683.691192632754</v>
+        <v>2450.026768799341</v>
       </c>
       <c r="R4">
-        <v>15153.22073369479</v>
+        <v>22050.24091919407</v>
       </c>
       <c r="S4">
-        <v>0.004239724180782816</v>
+        <v>0.009781206438557032</v>
       </c>
       <c r="T4">
-        <v>0.004239724180782816</v>
+        <v>0.009781206438557032</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.205621000000001</v>
+        <v>15.86144566666667</v>
       </c>
       <c r="H5">
-        <v>24.616863</v>
+        <v>47.584337</v>
       </c>
       <c r="I5">
-        <v>0.01071002656574725</v>
+        <v>0.02088955526964555</v>
       </c>
       <c r="J5">
-        <v>0.01071002656574725</v>
+        <v>0.02088955526964555</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.227808333333333</v>
+        <v>1.187924666666667</v>
       </c>
       <c r="N5">
-        <v>3.683425</v>
+        <v>3.563774</v>
       </c>
       <c r="O5">
-        <v>0.002368790466606695</v>
+        <v>0.00360100786314874</v>
       </c>
       <c r="P5">
-        <v>0.002368790466606695</v>
+        <v>0.003601007863148739</v>
       </c>
       <c r="Q5">
-        <v>10.074929843975</v>
+        <v>18.84220255642645</v>
       </c>
       <c r="R5">
-        <v>90.67436859577501</v>
+        <v>169.579823007838</v>
       </c>
       <c r="S5">
-        <v>2.536980882604653E-05</v>
+        <v>7.52234527836738E-05</v>
       </c>
       <c r="T5">
-        <v>2.536980882604653E-05</v>
+        <v>7.522345278367379E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.205621000000001</v>
+        <v>15.86144566666667</v>
       </c>
       <c r="H6">
-        <v>24.616863</v>
+        <v>47.584337</v>
       </c>
       <c r="I6">
-        <v>0.01071002656574725</v>
+        <v>0.02088955526964555</v>
       </c>
       <c r="J6">
-        <v>0.01071002656574725</v>
+        <v>0.02088955526964555</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>67.19573700000001</v>
+        <v>64.15228766666667</v>
       </c>
       <c r="N6">
-        <v>201.587211</v>
+        <v>192.456863</v>
       </c>
       <c r="O6">
-        <v>0.1296396325720308</v>
+        <v>0.1944676281324067</v>
       </c>
       <c r="P6">
-        <v>0.1296396325720308</v>
+        <v>0.1944676281324067</v>
       </c>
       <c r="Q6">
-        <v>551.3827506376771</v>
+        <v>1017.548025217203</v>
       </c>
       <c r="R6">
-        <v>4962.444755739094</v>
+        <v>9157.93222695483</v>
       </c>
       <c r="S6">
-        <v>0.001388443908820162</v>
+        <v>0.004062342266028788</v>
       </c>
       <c r="T6">
-        <v>0.001388443908820162</v>
+        <v>0.004062342266028788</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.205621000000001</v>
+        <v>15.86144566666667</v>
       </c>
       <c r="H7">
-        <v>24.616863</v>
+        <v>47.584337</v>
       </c>
       <c r="I7">
-        <v>0.01071002656574725</v>
+        <v>0.02088955526964555</v>
       </c>
       <c r="J7">
-        <v>0.01071002656574725</v>
+        <v>0.02088955526964555</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>243.8577783333334</v>
+        <v>106.393331</v>
       </c>
       <c r="N7">
-        <v>731.573335</v>
+        <v>319.179993</v>
       </c>
       <c r="O7">
-        <v>0.4704708095241973</v>
+        <v>0.3225147454784618</v>
       </c>
       <c r="P7">
-        <v>0.4704708095241973</v>
+        <v>0.3225147454784617</v>
       </c>
       <c r="Q7">
-        <v>2001.004506905345</v>
+        <v>1687.552038952182</v>
       </c>
       <c r="R7">
-        <v>18009.04056214811</v>
+        <v>15187.96835056964</v>
       </c>
       <c r="S7">
-        <v>0.005038754868412768</v>
+        <v>0.006737189600947993</v>
       </c>
       <c r="T7">
-        <v>0.005038754868412767</v>
+        <v>0.006737189600947992</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>201.6037953333333</v>
+        <v>201.6037953333334</v>
       </c>
       <c r="H8">
-        <v>604.811386</v>
+        <v>604.8113860000001</v>
       </c>
       <c r="I8">
-        <v>0.2631345030163435</v>
+        <v>0.2655125966251863</v>
       </c>
       <c r="J8">
-        <v>0.2631345030163434</v>
+        <v>0.2655125966251863</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1918176666666667</v>
+        <v>3.022461</v>
       </c>
       <c r="N8">
-        <v>0.575453</v>
+        <v>9.067383</v>
       </c>
       <c r="O8">
-        <v>0.0003700706761723729</v>
+        <v>0.009162117878737878</v>
       </c>
       <c r="P8">
-        <v>0.0003700706761723729</v>
+        <v>0.009162117878737878</v>
       </c>
       <c r="Q8">
-        <v>38.67116961198422</v>
+        <v>609.3396088469821</v>
       </c>
       <c r="R8">
-        <v>348.040526507858</v>
+        <v>5484.056479622838</v>
       </c>
       <c r="S8">
-        <v>9.737836345553955E-05</v>
+        <v>0.002432657708569738</v>
       </c>
       <c r="T8">
-        <v>9.737836345553952E-05</v>
+        <v>0.002432657708569738</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>201.6037953333333</v>
+        <v>201.6037953333334</v>
       </c>
       <c r="H9">
-        <v>604.811386</v>
+        <v>604.8113860000001</v>
       </c>
       <c r="I9">
-        <v>0.2631345030163435</v>
+        <v>0.2655125966251863</v>
       </c>
       <c r="J9">
-        <v>0.2631345030163434</v>
+        <v>0.2655125966251863</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.999305</v>
       </c>
       <c r="O9">
-        <v>0.001285742107912907</v>
+        <v>0.002020193487531081</v>
       </c>
       <c r="P9">
-        <v>0.001285742107912907</v>
+        <v>0.002020193487531081</v>
       </c>
       <c r="Q9">
         <v>134.35582534297</v>
@@ -1013,10 +1013,10 @@
         <v>1209.20242808673</v>
       </c>
       <c r="S9">
-        <v>0.0003383231105728487</v>
+        <v>0.0005363868185596682</v>
       </c>
       <c r="T9">
-        <v>0.0003383231105728486</v>
+        <v>0.0005363868185596683</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>201.6037953333333</v>
+        <v>201.6037953333334</v>
       </c>
       <c r="H10">
-        <v>604.811386</v>
+        <v>604.8113860000001</v>
       </c>
       <c r="I10">
-        <v>0.2631345030163435</v>
+        <v>0.2655125966251863</v>
       </c>
       <c r="J10">
-        <v>0.2631345030163434</v>
+        <v>0.2655125966251863</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>205.1875406666667</v>
+        <v>154.464279</v>
       </c>
       <c r="N10">
-        <v>615.562622</v>
+        <v>463.392837</v>
       </c>
       <c r="O10">
-        <v>0.3958649546530799</v>
+        <v>0.4682343071597139</v>
       </c>
       <c r="P10">
-        <v>0.3958649546530799</v>
+        <v>0.4682343071597138</v>
       </c>
       <c r="Q10">
-        <v>41366.58695351268</v>
+        <v>31140.5848898269</v>
       </c>
       <c r="R10">
-        <v>372299.2825816141</v>
+        <v>280265.2640084421</v>
       </c>
       <c r="S10">
-        <v>0.1041657281042255</v>
+        <v>0.1243221067229707</v>
       </c>
       <c r="T10">
-        <v>0.1041657281042255</v>
+        <v>0.1243221067229707</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>201.6037953333333</v>
+        <v>201.6037953333334</v>
       </c>
       <c r="H11">
-        <v>604.811386</v>
+        <v>604.8113860000001</v>
       </c>
       <c r="I11">
-        <v>0.2631345030163435</v>
+        <v>0.2655125966251863</v>
       </c>
       <c r="J11">
-        <v>0.2631345030163434</v>
+        <v>0.2655125966251863</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.227808333333333</v>
+        <v>1.187924666666667</v>
       </c>
       <c r="N11">
-        <v>3.683425</v>
+        <v>3.563774</v>
       </c>
       <c r="O11">
-        <v>0.002368790466606695</v>
+        <v>0.00360100786314874</v>
       </c>
       <c r="P11">
-        <v>0.002368790466606695</v>
+        <v>0.003601007863148739</v>
       </c>
       <c r="Q11">
-        <v>247.5308199418944</v>
+        <v>239.4901213700849</v>
       </c>
       <c r="R11">
-        <v>2227.77737947705</v>
+        <v>2155.411092330764</v>
       </c>
       <c r="S11">
-        <v>0.0006233105021804052</v>
+        <v>0.0009561129482123353</v>
       </c>
       <c r="T11">
-        <v>0.000623310502180405</v>
+        <v>0.0009561129482123353</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>201.6037953333333</v>
+        <v>201.6037953333334</v>
       </c>
       <c r="H12">
-        <v>604.811386</v>
+        <v>604.8113860000001</v>
       </c>
       <c r="I12">
-        <v>0.2631345030163435</v>
+        <v>0.2655125966251863</v>
       </c>
       <c r="J12">
-        <v>0.2631345030163434</v>
+        <v>0.2655125966251863</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>67.19573700000001</v>
+        <v>64.15228766666667</v>
       </c>
       <c r="N12">
-        <v>201.587211</v>
+        <v>192.456863</v>
       </c>
       <c r="O12">
-        <v>0.1296396325720308</v>
+        <v>0.1944676281324067</v>
       </c>
       <c r="P12">
-        <v>0.1296396325720308</v>
+        <v>0.1944676281324067</v>
       </c>
       <c r="Q12">
-        <v>13546.9156094205</v>
+        <v>12933.34467291579</v>
       </c>
       <c r="R12">
-        <v>121922.2404847845</v>
+        <v>116400.1020562421</v>
       </c>
       <c r="S12">
-        <v>0.03411266028806269</v>
+        <v>0.05163360490497643</v>
       </c>
       <c r="T12">
-        <v>0.03411266028806268</v>
+        <v>0.05163360490497645</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>201.6037953333333</v>
+        <v>201.6037953333334</v>
       </c>
       <c r="H13">
-        <v>604.811386</v>
+        <v>604.8113860000001</v>
       </c>
       <c r="I13">
-        <v>0.2631345030163435</v>
+        <v>0.2655125966251863</v>
       </c>
       <c r="J13">
-        <v>0.2631345030163434</v>
+        <v>0.2655125966251863</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>243.8577783333334</v>
+        <v>106.393331</v>
       </c>
       <c r="N13">
-        <v>731.573335</v>
+        <v>319.179993</v>
       </c>
       <c r="O13">
-        <v>0.4704708095241973</v>
+        <v>0.3225147454784618</v>
       </c>
       <c r="P13">
-        <v>0.4704708095241973</v>
+        <v>0.3225147454784617</v>
       </c>
       <c r="Q13">
-        <v>49162.65363355471</v>
+        <v>21449.29932775559</v>
       </c>
       <c r="R13">
-        <v>442463.8827019923</v>
+        <v>193043.6939498003</v>
       </c>
       <c r="S13">
-        <v>0.1237971026478465</v>
+        <v>0.08563172752189743</v>
       </c>
       <c r="T13">
-        <v>0.1237971026478464</v>
+        <v>0.08563172752189745</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.903983</v>
+        <v>10.852316</v>
       </c>
       <c r="H14">
-        <v>14.711949</v>
+        <v>32.556948</v>
       </c>
       <c r="I14">
-        <v>0.006400708515293711</v>
+        <v>0.01429252160552276</v>
       </c>
       <c r="J14">
-        <v>0.006400708515293711</v>
+        <v>0.01429252160552276</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1918176666666667</v>
+        <v>3.022461</v>
       </c>
       <c r="N14">
-        <v>0.575453</v>
+        <v>9.067383</v>
       </c>
       <c r="O14">
-        <v>0.0003700706761723729</v>
+        <v>0.009162117878737878</v>
       </c>
       <c r="P14">
-        <v>0.0003700706761723729</v>
+        <v>0.009162117878737878</v>
       </c>
       <c r="Q14">
-        <v>0.940670576433</v>
+        <v>32.800701869676</v>
       </c>
       <c r="R14">
-        <v>8.466035187897001</v>
+        <v>295.206316827084</v>
       </c>
       <c r="S14">
-        <v>2.368714528237009E-06</v>
+        <v>0.0001309497677342075</v>
       </c>
       <c r="T14">
-        <v>2.368714528237009E-06</v>
+        <v>0.0001309497677342075</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.903983</v>
+        <v>10.852316</v>
       </c>
       <c r="H15">
-        <v>14.711949</v>
+        <v>32.556948</v>
       </c>
       <c r="I15">
-        <v>0.006400708515293711</v>
+        <v>0.01429252160552276</v>
       </c>
       <c r="J15">
-        <v>0.006400708515293711</v>
+        <v>0.01429252160552276</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.999305</v>
       </c>
       <c r="O15">
-        <v>0.001285742107912907</v>
+        <v>0.002020193487531081</v>
       </c>
       <c r="P15">
-        <v>0.001285742107912907</v>
+        <v>0.002020193487531081</v>
       </c>
       <c r="Q15">
-        <v>3.268185910605</v>
+        <v>7.23236321346</v>
       </c>
       <c r="R15">
-        <v>29.413673195445</v>
+        <v>65.09126892114</v>
       </c>
       <c r="S15">
-        <v>8.22966045858983E-06</v>
+        <v>2.887365906787435E-05</v>
       </c>
       <c r="T15">
-        <v>8.22966045858983E-06</v>
+        <v>2.887365906787435E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.903983</v>
+        <v>10.852316</v>
       </c>
       <c r="H16">
-        <v>14.711949</v>
+        <v>32.556948</v>
       </c>
       <c r="I16">
-        <v>0.006400708515293711</v>
+        <v>0.01429252160552276</v>
       </c>
       <c r="J16">
-        <v>0.006400708515293711</v>
+        <v>0.01429252160552276</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>205.1875406666667</v>
+        <v>154.464279</v>
       </c>
       <c r="N16">
-        <v>615.562622</v>
+        <v>463.392837</v>
       </c>
       <c r="O16">
-        <v>0.3958649546530799</v>
+        <v>0.4682343071597139</v>
       </c>
       <c r="P16">
-        <v>0.3958649546530799</v>
+        <v>0.4682343071597138</v>
       </c>
       <c r="Q16">
-        <v>1006.236211241142</v>
+        <v>1676.295166420164</v>
       </c>
       <c r="R16">
-        <v>9056.125901170279</v>
+        <v>15086.65649778147</v>
       </c>
       <c r="S16">
-        <v>0.002533816186154328</v>
+        <v>0.006692248951527191</v>
       </c>
       <c r="T16">
-        <v>0.002533816186154328</v>
+        <v>0.00669224895152719</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.903983</v>
+        <v>10.852316</v>
       </c>
       <c r="H17">
-        <v>14.711949</v>
+        <v>32.556948</v>
       </c>
       <c r="I17">
-        <v>0.006400708515293711</v>
+        <v>0.01429252160552276</v>
       </c>
       <c r="J17">
-        <v>0.006400708515293711</v>
+        <v>0.01429252160552276</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.227808333333333</v>
+        <v>1.187924666666667</v>
       </c>
       <c r="N17">
-        <v>3.683425</v>
+        <v>3.563774</v>
       </c>
       <c r="O17">
-        <v>0.002368790466606695</v>
+        <v>0.00360100786314874</v>
       </c>
       <c r="P17">
-        <v>0.002368790466606695</v>
+        <v>0.003601007863148739</v>
       </c>
       <c r="Q17">
-        <v>6.021151193924999</v>
+        <v>12.89173386686134</v>
       </c>
       <c r="R17">
-        <v>54.19036074532499</v>
+        <v>116.025604801752</v>
       </c>
       <c r="S17">
-        <v>1.516193731055604E-05</v>
+        <v>5.146748268571071E-05</v>
       </c>
       <c r="T17">
-        <v>1.516193731055604E-05</v>
+        <v>5.14674826857107E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.903983</v>
+        <v>10.852316</v>
       </c>
       <c r="H18">
-        <v>14.711949</v>
+        <v>32.556948</v>
       </c>
       <c r="I18">
-        <v>0.006400708515293711</v>
+        <v>0.01429252160552276</v>
       </c>
       <c r="J18">
-        <v>0.006400708515293711</v>
+        <v>0.01429252160552276</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>67.19573700000001</v>
+        <v>64.15228766666667</v>
       </c>
       <c r="N18">
-        <v>201.587211</v>
+        <v>192.456863</v>
       </c>
       <c r="O18">
-        <v>0.1296396325720308</v>
+        <v>0.1944676281324067</v>
       </c>
       <c r="P18">
-        <v>0.1296396325720308</v>
+        <v>0.1944676281324067</v>
       </c>
       <c r="Q18">
-        <v>329.526751920471</v>
+        <v>696.2008978815693</v>
       </c>
       <c r="R18">
-        <v>2965.74076728424</v>
+        <v>6265.808080934124</v>
       </c>
       <c r="S18">
-        <v>0.0008297855001233453</v>
+        <v>0.002779432776657189</v>
       </c>
       <c r="T18">
-        <v>0.0008297855001233453</v>
+        <v>0.002779432776657189</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.903983</v>
+        <v>10.852316</v>
       </c>
       <c r="H19">
-        <v>14.711949</v>
+        <v>32.556948</v>
       </c>
       <c r="I19">
-        <v>0.006400708515293711</v>
+        <v>0.01429252160552276</v>
       </c>
       <c r="J19">
-        <v>0.006400708515293711</v>
+        <v>0.01429252160552276</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>243.8577783333334</v>
+        <v>106.393331</v>
       </c>
       <c r="N19">
-        <v>731.573335</v>
+        <v>319.179993</v>
       </c>
       <c r="O19">
-        <v>0.4704708095241973</v>
+        <v>0.3225147454784618</v>
       </c>
       <c r="P19">
-        <v>0.4704708095241973</v>
+        <v>0.3225147454784617</v>
       </c>
       <c r="Q19">
-        <v>1195.874399364435</v>
+        <v>1154.614048304596</v>
       </c>
       <c r="R19">
-        <v>10762.86959427992</v>
+        <v>10391.52643474136</v>
       </c>
       <c r="S19">
-        <v>0.003011346516718656</v>
+        <v>0.004609548967850589</v>
       </c>
       <c r="T19">
-        <v>0.003011346516718655</v>
+        <v>0.004609548967850588</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.91311666666667</v>
+        <v>37.40947433333333</v>
       </c>
       <c r="H20">
-        <v>32.73935</v>
+        <v>112.228423</v>
       </c>
       <c r="I20">
-        <v>0.01424386641975045</v>
+        <v>0.04926835158139661</v>
       </c>
       <c r="J20">
-        <v>0.01424386641975045</v>
+        <v>0.04926835158139661</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1918176666666667</v>
+        <v>3.022461</v>
       </c>
       <c r="N20">
-        <v>0.575453</v>
+        <v>9.067383</v>
       </c>
       <c r="O20">
-        <v>0.0003700706761723729</v>
+        <v>0.009162117878737878</v>
       </c>
       <c r="P20">
-        <v>0.0003700706761723729</v>
+        <v>0.009162117878737878</v>
       </c>
       <c r="Q20">
-        <v>2.093328575061111</v>
+        <v>113.068677203001</v>
       </c>
       <c r="R20">
-        <v>18.83995717555</v>
+        <v>1017.618094827009</v>
       </c>
       <c r="S20">
-        <v>5.271237277266005E-06</v>
+        <v>0.0004514024448798575</v>
       </c>
       <c r="T20">
-        <v>5.271237277266005E-06</v>
+        <v>0.0004514024448798576</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.91311666666667</v>
+        <v>37.40947433333333</v>
       </c>
       <c r="H21">
-        <v>32.73935</v>
+        <v>112.228423</v>
       </c>
       <c r="I21">
-        <v>0.01424386641975045</v>
+        <v>0.04926835158139661</v>
       </c>
       <c r="J21">
-        <v>0.01424386641975045</v>
+        <v>0.04926835158139661</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.999305</v>
       </c>
       <c r="O21">
-        <v>0.001285742107912907</v>
+        <v>0.002020193487531081</v>
       </c>
       <c r="P21">
-        <v>0.001285742107912907</v>
+        <v>0.002020193487531081</v>
       </c>
       <c r="Q21">
-        <v>7.27288290575</v>
+        <v>24.930983027335</v>
       </c>
       <c r="R21">
-        <v>65.45594615175001</v>
+        <v>224.378847246015</v>
       </c>
       <c r="S21">
-        <v>1.831393883535981E-05</v>
+        <v>9.953160300612906E-05</v>
       </c>
       <c r="T21">
-        <v>1.831393883535981E-05</v>
+        <v>9.953160300612907E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.91311666666667</v>
+        <v>37.40947433333333</v>
       </c>
       <c r="H22">
-        <v>32.73935</v>
+        <v>112.228423</v>
       </c>
       <c r="I22">
-        <v>0.01424386641975045</v>
+        <v>0.04926835158139661</v>
       </c>
       <c r="J22">
-        <v>0.01424386641975045</v>
+        <v>0.04926835158139661</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>205.1875406666667</v>
+        <v>154.464279</v>
       </c>
       <c r="N22">
-        <v>615.562622</v>
+        <v>463.392837</v>
       </c>
       <c r="O22">
-        <v>0.3958649546530799</v>
+        <v>0.4682343071597139</v>
       </c>
       <c r="P22">
-        <v>0.3958649546530799</v>
+        <v>0.4682343071597138</v>
       </c>
       <c r="Q22">
-        <v>2239.235569841745</v>
+        <v>5778.427480667338</v>
       </c>
       <c r="R22">
-        <v>20153.1201285757</v>
+        <v>52005.84732600605</v>
       </c>
       <c r="S22">
-        <v>0.005638647534339038</v>
+        <v>0.02306913246761643</v>
       </c>
       <c r="T22">
-        <v>0.005638647534339038</v>
+        <v>0.02306913246761643</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.91311666666667</v>
+        <v>37.40947433333333</v>
       </c>
       <c r="H23">
-        <v>32.73935</v>
+        <v>112.228423</v>
       </c>
       <c r="I23">
-        <v>0.01424386641975045</v>
+        <v>0.04926835158139661</v>
       </c>
       <c r="J23">
-        <v>0.01424386641975045</v>
+        <v>0.04926835158139661</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.227808333333333</v>
+        <v>1.187924666666667</v>
       </c>
       <c r="N23">
-        <v>3.683425</v>
+        <v>3.563774</v>
       </c>
       <c r="O23">
-        <v>0.002368790466606695</v>
+        <v>0.00360100786314874</v>
       </c>
       <c r="P23">
-        <v>0.002368790466606695</v>
+        <v>0.003601007863148739</v>
       </c>
       <c r="Q23">
-        <v>13.39921558597222</v>
+        <v>44.43963732760022</v>
       </c>
       <c r="R23">
-        <v>120.59294027375</v>
+        <v>399.956735948402</v>
       </c>
       <c r="S23">
-        <v>3.37407349827241E-05</v>
+        <v>0.0001774157214489858</v>
       </c>
       <c r="T23">
-        <v>3.37407349827241E-05</v>
+        <v>0.0001774157214489858</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.91311666666667</v>
+        <v>37.40947433333333</v>
       </c>
       <c r="H24">
-        <v>32.73935</v>
+        <v>112.228423</v>
       </c>
       <c r="I24">
-        <v>0.01424386641975045</v>
+        <v>0.04926835158139661</v>
       </c>
       <c r="J24">
-        <v>0.01424386641975045</v>
+        <v>0.04926835158139661</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>67.19573700000001</v>
+        <v>64.15228766666667</v>
       </c>
       <c r="N24">
-        <v>201.587211</v>
+        <v>192.456863</v>
       </c>
       <c r="O24">
-        <v>0.1296396325720308</v>
+        <v>0.1944676281324067</v>
       </c>
       <c r="P24">
-        <v>0.1296396325720308</v>
+        <v>0.1944676281324067</v>
       </c>
       <c r="Q24">
-        <v>733.3149173836501</v>
+        <v>2399.903358890783</v>
       </c>
       <c r="R24">
-        <v>6599.834256452851</v>
+        <v>21599.13023001705</v>
       </c>
       <c r="S24">
-        <v>0.001846569609061535</v>
+        <v>0.009581099474027709</v>
       </c>
       <c r="T24">
-        <v>0.001846569609061535</v>
+        <v>0.00958109947402771</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.91311666666667</v>
+        <v>37.40947433333333</v>
       </c>
       <c r="H25">
-        <v>32.73935</v>
+        <v>112.228423</v>
       </c>
       <c r="I25">
-        <v>0.01424386641975045</v>
+        <v>0.04926835158139661</v>
       </c>
       <c r="J25">
-        <v>0.01424386641975045</v>
+        <v>0.04926835158139661</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>243.8577783333334</v>
+        <v>106.393331</v>
       </c>
       <c r="N25">
-        <v>731.573335</v>
+        <v>319.179993</v>
       </c>
       <c r="O25">
-        <v>0.4704708095241973</v>
+        <v>0.3225147454784618</v>
       </c>
       <c r="P25">
-        <v>0.4704708095241973</v>
+        <v>0.3225147454784617</v>
       </c>
       <c r="Q25">
-        <v>2661.248385025806</v>
+        <v>3980.118585282337</v>
       </c>
       <c r="R25">
-        <v>23951.23546523225</v>
+        <v>35821.06726754103</v>
       </c>
       <c r="S25">
-        <v>0.006701323365254523</v>
+        <v>0.0158897698704175</v>
       </c>
       <c r="T25">
-        <v>0.006701323365254522</v>
+        <v>0.0158897698704175</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>537.5836283333333</v>
+        <v>489.4226073333334</v>
       </c>
       <c r="H26">
-        <v>1612.750885</v>
+        <v>1468.267822</v>
       </c>
       <c r="I26">
-        <v>0.7016574297985242</v>
+        <v>0.6445705404766087</v>
       </c>
       <c r="J26">
-        <v>0.7016574297985242</v>
+        <v>0.6445705404766088</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.1918176666666667</v>
+        <v>3.022461</v>
       </c>
       <c r="N26">
-        <v>0.575453</v>
+        <v>9.067383</v>
       </c>
       <c r="O26">
-        <v>0.0003700706761723729</v>
+        <v>0.009162117878737878</v>
       </c>
       <c r="P26">
-        <v>0.0003700706761723729</v>
+        <v>0.009162117878737878</v>
       </c>
       <c r="Q26">
-        <v>103.1180372251006</v>
+        <v>1479.260743183314</v>
       </c>
       <c r="R26">
-        <v>928.062335025905</v>
+        <v>13313.34668864983</v>
       </c>
       <c r="S26">
-        <v>0.0002596628394869092</v>
+        <v>0.005905631273008474</v>
       </c>
       <c r="T26">
-        <v>0.0002596628394869092</v>
+        <v>0.005905631273008475</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>537.5836283333333</v>
+        <v>489.4226073333334</v>
       </c>
       <c r="H27">
-        <v>1612.750885</v>
+        <v>1468.267822</v>
       </c>
       <c r="I27">
-        <v>0.7016574297985242</v>
+        <v>0.6445705404766087</v>
       </c>
       <c r="J27">
-        <v>0.7016574297985242</v>
+        <v>0.6445705404766088</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.999305</v>
       </c>
       <c r="O27">
-        <v>0.001285742107912907</v>
+        <v>0.002020193487531081</v>
       </c>
       <c r="P27">
-        <v>0.001285742107912907</v>
+        <v>0.002020193487531081</v>
       </c>
       <c r="Q27">
-        <v>358.264545348325</v>
+        <v>326.16835531819</v>
       </c>
       <c r="R27">
-        <v>3224.380908134925</v>
+        <v>2935.51519786371</v>
       </c>
       <c r="S27">
-        <v>0.0009021505028219071</v>
+        <v>0.001302157208125234</v>
       </c>
       <c r="T27">
-        <v>0.0009021505028219071</v>
+        <v>0.001302157208125234</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>537.5836283333333</v>
+        <v>489.4226073333334</v>
       </c>
       <c r="H28">
-        <v>1612.750885</v>
+        <v>1468.267822</v>
       </c>
       <c r="I28">
-        <v>0.7016574297985242</v>
+        <v>0.6445705404766087</v>
       </c>
       <c r="J28">
-        <v>0.7016574297985242</v>
+        <v>0.6445705404766088</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>205.1875406666667</v>
+        <v>154.464279</v>
       </c>
       <c r="N28">
-        <v>615.562622</v>
+        <v>463.392837</v>
       </c>
       <c r="O28">
-        <v>0.3958649546530799</v>
+        <v>0.4682343071597139</v>
       </c>
       <c r="P28">
-        <v>0.3958649546530799</v>
+        <v>0.4682343071597138</v>
       </c>
       <c r="Q28">
-        <v>110305.4626003801</v>
+        <v>75598.31016804345</v>
       </c>
       <c r="R28">
-        <v>992749.1634034205</v>
+        <v>680384.7915123909</v>
       </c>
       <c r="S28">
-        <v>0.2777615866291894</v>
+        <v>0.3018100404356271</v>
       </c>
       <c r="T28">
-        <v>0.2777615866291894</v>
+        <v>0.3018100404356272</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>537.5836283333333</v>
+        <v>489.4226073333334</v>
       </c>
       <c r="H29">
-        <v>1612.750885</v>
+        <v>1468.267822</v>
       </c>
       <c r="I29">
-        <v>0.7016574297985242</v>
+        <v>0.6445705404766087</v>
       </c>
       <c r="J29">
-        <v>0.7016574297985242</v>
+        <v>0.6445705404766088</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.227808333333333</v>
+        <v>1.187924666666667</v>
       </c>
       <c r="N29">
-        <v>3.683425</v>
+        <v>3.563774</v>
       </c>
       <c r="O29">
-        <v>0.002368790466606695</v>
+        <v>0.00360100786314874</v>
       </c>
       <c r="P29">
-        <v>0.002368790466606695</v>
+        <v>0.003601007863148739</v>
       </c>
       <c r="Q29">
-        <v>660.049658731236</v>
+        <v>581.397187675581</v>
       </c>
       <c r="R29">
-        <v>5940.446928581125</v>
+        <v>5232.574689080228</v>
       </c>
       <c r="S29">
-        <v>0.0016620794305305</v>
+        <v>0.002321103584610301</v>
       </c>
       <c r="T29">
-        <v>0.0016620794305305</v>
+        <v>0.002321103584610301</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>537.5836283333333</v>
+        <v>489.4226073333334</v>
       </c>
       <c r="H30">
-        <v>1612.750885</v>
+        <v>1468.267822</v>
       </c>
       <c r="I30">
-        <v>0.7016574297985242</v>
+        <v>0.6445705404766087</v>
       </c>
       <c r="J30">
-        <v>0.7016574297985242</v>
+        <v>0.6445705404766088</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>67.19573700000001</v>
+        <v>64.15228766666667</v>
       </c>
       <c r="N30">
-        <v>201.587211</v>
+        <v>192.456863</v>
       </c>
       <c r="O30">
-        <v>0.1296396325720308</v>
+        <v>0.1944676281324067</v>
       </c>
       <c r="P30">
-        <v>0.1296396325720308</v>
+        <v>0.1944676281324067</v>
       </c>
       <c r="Q30">
-        <v>36123.32810499242</v>
+        <v>31397.57989621805</v>
       </c>
       <c r="R30">
-        <v>325109.9529449317</v>
+        <v>282578.2190659624</v>
       </c>
       <c r="S30">
-        <v>0.09096261139051615</v>
+        <v>0.1253481041705096</v>
       </c>
       <c r="T30">
-        <v>0.09096261139051615</v>
+        <v>0.1253481041705096</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>537.5836283333333</v>
+        <v>489.4226073333334</v>
       </c>
       <c r="H31">
-        <v>1612.750885</v>
+        <v>1468.267822</v>
       </c>
       <c r="I31">
-        <v>0.7016574297985242</v>
+        <v>0.6445705404766087</v>
       </c>
       <c r="J31">
-        <v>0.7016574297985242</v>
+        <v>0.6445705404766088</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>243.8577783333334</v>
+        <v>106.393331</v>
       </c>
       <c r="N31">
-        <v>731.573335</v>
+        <v>319.179993</v>
       </c>
       <c r="O31">
-        <v>0.4704708095241973</v>
+        <v>0.3225147454784618</v>
       </c>
       <c r="P31">
-        <v>0.4704708095241973</v>
+        <v>0.3225147454784617</v>
       </c>
       <c r="Q31">
-        <v>131093.9492737391</v>
+        <v>52071.30146089836</v>
       </c>
       <c r="R31">
-        <v>1179845.543463652</v>
+        <v>468641.7131480852</v>
       </c>
       <c r="S31">
-        <v>0.3301093390059793</v>
+        <v>0.207883503804728</v>
       </c>
       <c r="T31">
-        <v>0.3301093390059793</v>
+        <v>0.207883503804728</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.952381</v>
+        <v>4.150665333333333</v>
       </c>
       <c r="H32">
-        <v>8.857143000000001</v>
+        <v>12.451996</v>
       </c>
       <c r="I32">
-        <v>0.003853465684340946</v>
+        <v>0.005466434441640014</v>
       </c>
       <c r="J32">
-        <v>0.003853465684340945</v>
+        <v>0.005466434441640015</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.1918176666666667</v>
+        <v>3.022461</v>
       </c>
       <c r="N32">
-        <v>0.575453</v>
+        <v>9.067383</v>
       </c>
       <c r="O32">
-        <v>0.0003700706761723729</v>
+        <v>0.009162117878737878</v>
       </c>
       <c r="P32">
-        <v>0.0003700706761723729</v>
+        <v>0.009162117878737878</v>
       </c>
       <c r="Q32">
-        <v>0.5663188345310001</v>
+        <v>12.545224094052</v>
       </c>
       <c r="R32">
-        <v>5.096869510779</v>
+        <v>112.907016846468</v>
       </c>
       <c r="S32">
-        <v>1.42605465141109E-06</v>
+        <v>5.008411673069848E-05</v>
       </c>
       <c r="T32">
-        <v>1.426054651411089E-06</v>
+        <v>5.008411673069849E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.952381</v>
+        <v>4.150665333333333</v>
       </c>
       <c r="H33">
-        <v>8.857143000000001</v>
+        <v>12.451996</v>
       </c>
       <c r="I33">
-        <v>0.003853465684340946</v>
+        <v>0.005466434441640014</v>
       </c>
       <c r="J33">
-        <v>0.003853465684340945</v>
+        <v>0.005466434441640015</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.999305</v>
       </c>
       <c r="O33">
-        <v>0.001285742107912907</v>
+        <v>0.002020193487531081</v>
       </c>
       <c r="P33">
-        <v>0.001285742107912907</v>
+        <v>0.002020193487531081</v>
       </c>
       <c r="Q33">
-        <v>1.967570031735</v>
+        <v>2.76614865142</v>
       </c>
       <c r="R33">
-        <v>17.708130285615</v>
+        <v>24.89533786278</v>
       </c>
       <c r="S33">
-        <v>4.95456309175458E-06</v>
+        <v>1.104325525901676E-05</v>
       </c>
       <c r="T33">
-        <v>4.95456309175458E-06</v>
+        <v>1.104325525901676E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.952381</v>
+        <v>4.150665333333333</v>
       </c>
       <c r="H34">
-        <v>8.857143000000001</v>
+        <v>12.451996</v>
       </c>
       <c r="I34">
-        <v>0.003853465684340946</v>
+        <v>0.005466434441640014</v>
       </c>
       <c r="J34">
-        <v>0.003853465684340945</v>
+        <v>0.005466434441640015</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>205.1875406666667</v>
+        <v>154.464279</v>
       </c>
       <c r="N34">
-        <v>615.562622</v>
+        <v>463.392837</v>
       </c>
       <c r="O34">
-        <v>0.3958649546530799</v>
+        <v>0.4682343071597139</v>
       </c>
       <c r="P34">
-        <v>0.3958649546530799</v>
+        <v>0.4682343071597138</v>
       </c>
       <c r="Q34">
-        <v>605.7917965009941</v>
+        <v>641.1295280836281</v>
       </c>
       <c r="R34">
-        <v>5452.126168508947</v>
+        <v>5770.165752752652</v>
       </c>
       <c r="S34">
-        <v>0.001525452018388828</v>
+        <v>0.002559572143415309</v>
       </c>
       <c r="T34">
-        <v>0.001525452018388828</v>
+        <v>0.002559572143415309</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.952381</v>
+        <v>4.150665333333333</v>
       </c>
       <c r="H35">
-        <v>8.857143000000001</v>
+        <v>12.451996</v>
       </c>
       <c r="I35">
-        <v>0.003853465684340946</v>
+        <v>0.005466434441640014</v>
       </c>
       <c r="J35">
-        <v>0.003853465684340945</v>
+        <v>0.005466434441640015</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.227808333333333</v>
+        <v>1.187924666666667</v>
       </c>
       <c r="N35">
-        <v>3.683425</v>
+        <v>3.563774</v>
       </c>
       <c r="O35">
-        <v>0.002368790466606695</v>
+        <v>0.00360100786314874</v>
       </c>
       <c r="P35">
-        <v>0.002368790466606695</v>
+        <v>0.003601007863148739</v>
       </c>
       <c r="Q35">
-        <v>3.624957994975</v>
+        <v>4.930677732544889</v>
       </c>
       <c r="R35">
-        <v>32.624621954775</v>
+        <v>44.376099592904</v>
       </c>
       <c r="S35">
-        <v>9.128052776462877E-06</v>
+        <v>1.968467340773278E-05</v>
       </c>
       <c r="T35">
-        <v>9.128052776462875E-06</v>
+        <v>1.968467340773278E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.952381</v>
+        <v>4.150665333333333</v>
       </c>
       <c r="H36">
-        <v>8.857143000000001</v>
+        <v>12.451996</v>
       </c>
       <c r="I36">
-        <v>0.003853465684340946</v>
+        <v>0.005466434441640014</v>
       </c>
       <c r="J36">
-        <v>0.003853465684340945</v>
+        <v>0.005466434441640015</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>67.19573700000001</v>
+        <v>64.15228766666667</v>
       </c>
       <c r="N36">
-        <v>201.587211</v>
+        <v>192.456863</v>
       </c>
       <c r="O36">
-        <v>0.1296396325720308</v>
+        <v>0.1944676281324067</v>
       </c>
       <c r="P36">
-        <v>0.1296396325720308</v>
+        <v>0.1944676281324067</v>
       </c>
       <c r="Q36">
-        <v>198.3874171997971</v>
+        <v>266.2746764720609</v>
       </c>
       <c r="R36">
-        <v>1785.486754798173</v>
+        <v>2396.472088248548</v>
       </c>
       <c r="S36">
-        <v>0.0004995618754468893</v>
+        <v>0.001063044540207031</v>
       </c>
       <c r="T36">
-        <v>0.0004995618754468893</v>
+        <v>0.001063044540207031</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.952381</v>
+        <v>4.150665333333333</v>
       </c>
       <c r="H37">
-        <v>8.857143000000001</v>
+        <v>12.451996</v>
       </c>
       <c r="I37">
-        <v>0.003853465684340946</v>
+        <v>0.005466434441640014</v>
       </c>
       <c r="J37">
-        <v>0.003853465684340945</v>
+        <v>0.005466434441640015</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>243.8577783333334</v>
+        <v>106.393331</v>
       </c>
       <c r="N37">
-        <v>731.573335</v>
+        <v>319.179993</v>
       </c>
       <c r="O37">
-        <v>0.4704708095241973</v>
+        <v>0.3225147454784618</v>
       </c>
       <c r="P37">
-        <v>0.4704708095241973</v>
+        <v>0.3225147454784617</v>
       </c>
       <c r="Q37">
-        <v>719.9610714535452</v>
+        <v>441.6031106795587</v>
       </c>
       <c r="R37">
-        <v>6479.649643081906</v>
+        <v>3974.427996116028</v>
       </c>
       <c r="S37">
-        <v>0.0018129431199856</v>
+        <v>0.001763005712620226</v>
       </c>
       <c r="T37">
-        <v>0.001812943119985599</v>
+        <v>0.001763005712620226</v>
       </c>
     </row>
   </sheetData>
